--- a/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BD20F3-8BE8-4B5E-90FB-08BCC2F63321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7467D2-1663-44E3-9816-A5F7EBC52ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37C4AB07-3E76-446E-B997-9B95B3F249D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7689B8-907F-4D71-9FA1-1E376448BB42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="188">
   <si>
     <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -284,319 +284,325 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>39,24%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>63,88%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,65%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E0A000-D5B3-43EA-877A-79037297E3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956E1F4-18DA-4878-B932-9564D83AD422}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2071,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8F25F-3FA2-4E52-A593-6B04CFF0AA48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76A9C4D-A792-47B6-93A5-FD2578F6A856}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3134,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4119B1C8-9E98-4A32-A601-813F5BD786E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF773F42-CCF0-44AA-A275-23E3478EFF98}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA581E6A-C3D4-4D8E-A724-E996D0EEA793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B12DB6-C8D9-4A87-BB76-FD881A1C9B2A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4694,7 +4700,7 @@
         <v>917</v>
       </c>
       <c r="I11" s="7">
-        <v>599192</v>
+        <v>599193</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>128</v>
@@ -4745,7 +4751,7 @@
         <v>1515</v>
       </c>
       <c r="I12" s="7">
-        <v>1059248</v>
+        <v>1059249</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5114,10 +5120,10 @@
         <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3389</v>
@@ -5126,13 +5132,13 @@
         <v>2813507</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5153,13 @@
         <v>2078530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>3295</v>
@@ -5162,13 +5168,13 @@
         <v>2324154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>5346</v>
@@ -5177,13 +5183,13 @@
         <v>4402684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7467D2-1663-44E3-9816-A5F7EBC52ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E052B5D-E919-4F86-9044-70C5032EF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7689B8-907F-4D71-9FA1-1E376448BB42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8A5EEC-C1AA-4775-B80C-318C8A964ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956E1F4-18DA-4878-B932-9564D83AD422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1063E6-F8C0-4419-B1F7-FE71E04D90A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1961,7 +1961,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1991,7 +1991,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2012,7 +2012,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2042,7 +2042,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2077,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76A9C4D-A792-47B6-93A5-FD2578F6A856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABD876-8E41-4232-ADC1-4C75DF2433FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF773F42-CCF0-44AA-A275-23E3478EFF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E136C8A5-FB55-4BD3-88A3-67506C509874}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,7 +4203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B12DB6-C8D9-4A87-BB76-FD881A1C9B2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2C5E3-1980-4279-85AF-66798F3FCBF1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E052B5D-E919-4F86-9044-70C5032EF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED44D3CB-99E8-4C45-9362-34FF15D3F032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8A5EEC-C1AA-4775-B80C-318C8A964ED1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E86946B-E0D4-43FF-A5F6-A0C190242A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="188">
-  <si>
-    <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="186">
+  <si>
+    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -194,7 +194,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -278,331 +278,325 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2023 (Tasa respuesta: 99,91%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>39,24%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>60,76%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>29,91%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>69,88%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>47,55%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
   </si>
   <si>
     <t>48,49%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>52,45%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>51,51%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>41,35%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>58,65%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1063E6-F8C0-4419-B1F7-FE71E04D90A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9741F7FE-5003-4B9D-B241-E69B4998DEF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1961,7 +1955,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1991,7 +1985,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2012,7 +2006,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2042,7 +2036,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2077,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABD876-8E41-4232-ADC1-4C75DF2433FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F77F7D-AB55-4781-92F8-F20D6933CB69}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E136C8A5-FB55-4BD3-88A3-67506C509874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF926C9F-643B-4FC3-8302-A4B669DD70D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2C5E3-1980-4279-85AF-66798F3FCBF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09362A-7E86-4EEA-9516-FF5A9F7FE6B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4700,7 +4694,7 @@
         <v>917</v>
       </c>
       <c r="I11" s="7">
-        <v>599193</v>
+        <v>599192</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>128</v>
@@ -4751,7 +4745,7 @@
         <v>1515</v>
       </c>
       <c r="I12" s="7">
-        <v>1059249</v>
+        <v>1059248</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5120,10 +5114,10 @@
         <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3389</v>
@@ -5132,13 +5126,13 @@
         <v>2813507</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5147,13 @@
         <v>2078530</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>3295</v>
@@ -5168,13 +5162,13 @@
         <v>2324154</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>5346</v>
@@ -5183,13 +5177,13 @@
         <v>4402684</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
